--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>)</t>
+      <t>)(2011)</t>
     </r>
   </si>
 </sst>
@@ -102,14 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -432,7 +425,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -74,47 +74,20 @@
     <t>pp</t>
   </si>
   <si>
-    <r>
-      <t>CMS(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)(2011)</t>
-    </r>
+    <t>CMS(mu)(2011)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,7 +398,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{934435C8-B64B-4944-BE7B-C1E95324B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="36460" yWindow="3180" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>cms</t>
   </si>
@@ -47,9 +57,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -75,12 +82,57 @@
   </si>
   <si>
     <t>CMS(mu)(2011)</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst4_c</t>
+  </si>
+  <si>
+    <t>syst5_c</t>
+  </si>
+  <si>
+    <t>syst6_c</t>
+  </si>
+  <si>
+    <t>syst7_c</t>
+  </si>
+  <si>
+    <t>syst8_c</t>
+  </si>
+  <si>
+    <t>syst9_c</t>
+  </si>
+  <si>
+    <t>syst10_c</t>
+  </si>
+  <si>
+    <t>syst11_c</t>
+  </si>
+  <si>
+    <t>syst12_c</t>
+  </si>
+  <si>
+    <t>syst13_c</t>
+  </si>
+  <si>
+    <t>syst14_c</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -394,22 +446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
     <col min="1013" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,22 +484,64 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -461,7 +555,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>0.15210000000000001</v>
@@ -473,19 +567,61 @@
         <v>2E-3</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
+      <c r="M2">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O2">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="P2">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="Q2">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="R2">
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="S2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="T2">
+        <v>1.0999999999999999E-4</v>
+      </c>
+      <c r="U2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V2">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="W2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="X2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="Y2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="Z2">
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -499,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>0.15379999999999999</v>
@@ -511,19 +647,61 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
+      <c r="M3">
+        <v>1.33E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="O3">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="P3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Q3">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="R3">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="S3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T3">
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="U3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V3">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="W3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="X3">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="Y3">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="Z3">
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -537,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>0.1603</v>
@@ -549,19 +727,61 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
+      <c r="M4">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O4">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="P4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="S4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="T4">
+        <v>3.3E-4</v>
+      </c>
+      <c r="U4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V4">
+        <v>1.0999999999999999E-4</v>
+      </c>
+      <c r="W4">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="X4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="Y4">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="Z4">
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -575,7 +795,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>0.1706</v>
@@ -587,19 +807,61 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
+      <c r="M5">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="O5">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="P5">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="Q5">
+        <v>1.09E-3</v>
+      </c>
+      <c r="R5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="S5">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="T5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="U5">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="W5">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="X5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="Y5">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="Z5">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -613,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>0.17879999999999999</v>
@@ -625,19 +887,61 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
+      <c r="M6">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.0199999999999999E-3</v>
+      </c>
+      <c r="O6">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="P6">
+        <v>5.0999999999999993E-4</v>
+      </c>
+      <c r="Q6">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>2.9E-4</v>
+      </c>
+      <c r="U6">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V6">
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="W6">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="X6">
+        <v>1.0999999999999999E-4</v>
+      </c>
+      <c r="Y6">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="Z6">
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -651,7 +955,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>0.20069999999999999</v>
@@ -663,19 +967,61 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
+      <c r="M7">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.0299999999999999E-3</v>
+      </c>
+      <c r="O7">
+        <v>6.9000000000000008E-4</v>
+      </c>
+      <c r="P7">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="Q7">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="R7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S7">
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="T7">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="U7">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V7">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="W7">
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="X7">
+        <v>1.0999999999999999E-4</v>
+      </c>
+      <c r="Y7">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Z7">
+        <v>1.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -689,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>0.21129999999999999</v>
@@ -701,19 +1047,61 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>16</v>
+      <c r="M8">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="N8">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="O8">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="P8">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="Q8">
+        <v>1.07E-3</v>
+      </c>
+      <c r="R8">
+        <v>2.7E-4</v>
+      </c>
+      <c r="S8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T8">
+        <v>4.3999999999999996E-4</v>
+      </c>
+      <c r="U8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V8">
+        <v>2.1999999999999998E-4</v>
+      </c>
+      <c r="W8">
+        <v>1.2E-4</v>
+      </c>
+      <c r="X8">
+        <v>1E-4</v>
+      </c>
+      <c r="Y8">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Z8">
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -727,7 +1115,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>0.22170000000000001</v>
@@ -739,19 +1127,61 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>16</v>
+      <c r="M9">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="O9">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="P9">
+        <v>5.8E-4</v>
+      </c>
+      <c r="Q9">
+        <v>9.1E-4</v>
+      </c>
+      <c r="R9">
+        <v>3.1E-4</v>
+      </c>
+      <c r="S9">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="T9">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="U9">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V9">
+        <v>3.1E-4</v>
+      </c>
+      <c r="W9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="X9">
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="Y9">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Z9">
+        <v>8.9999999999999992E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -765,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>0.24610000000000001</v>
@@ -777,19 +1207,61 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>16</v>
+      <c r="M10">
+        <v>1.65E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.08E-3</v>
+      </c>
+      <c r="O10">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="P10">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="Q10">
+        <v>1.1799999999999998E-3</v>
+      </c>
+      <c r="R10">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="S10">
+        <v>1.8999999999999998E-4</v>
+      </c>
+      <c r="T10">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="U10">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V10">
+        <v>1.8999999999999998E-4</v>
+      </c>
+      <c r="W10">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="X10">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="Y10">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Z10">
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -803,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>0.2616</v>
@@ -815,19 +1287,61 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>16</v>
+      <c r="M11">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="N11">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="O11">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="P11">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="Q11">
+        <v>8.699999999999999E-4</v>
+      </c>
+      <c r="R11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="S11">
+        <v>3.7999999999999997E-4</v>
+      </c>
+      <c r="T11">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="U11">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="V11">
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="W11">
+        <v>3.3E-4</v>
+      </c>
+      <c r="X11">
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="Y11">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Z11">
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -841,7 +1355,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>0.26490000000000002</v>
@@ -853,16 +1367,58 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>16</v>
+      <c r="M12">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>1.83E-3</v>
+      </c>
+      <c r="O12">
+        <v>8.699999999999999E-4</v>
+      </c>
+      <c r="P12">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="Q12">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="R12">
+        <v>6.9000000000000008E-4</v>
+      </c>
+      <c r="S12">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="T12">
+        <v>3.7999999999999997E-4</v>
+      </c>
+      <c r="U12">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="X12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="Y12">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{934435C8-B64B-4944-BE7B-C1E95324B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD11251-CE79-614E-AD0C-00BE665E86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36460" yWindow="3180" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,6 @@
     <t>CMS(mu)(2011)</t>
   </si>
   <si>
-    <t>syst1_c</t>
-  </si>
-  <si>
-    <t>syst2_c</t>
-  </si>
-  <si>
     <t>syst3_c</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst1_u</t>
+  </si>
+  <si>
+    <t>syst2_u</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -499,46 +499,46 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">

--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD11251-CE79-614E-AD0C-00BE665E86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE75BD-30F5-7A45-9E3C-6A48913328ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE75BD-30F5-7A45-9E3C-6A48913328ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8581356-05EE-6C41-890A-888F63219987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>cms</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>syst2_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -447,21 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1013" max="1024" width="10.5" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,73 +478,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -554,74 +560,77 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.15210000000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2E-3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.8000000000000003E-4</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.0999999999999999E-4</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1.2E-4</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -634,74 +643,77 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.33E-3</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.1299999999999999E-3</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7.6999999999999996E-4</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>8.9999999999999992E-5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -714,74 +726,77 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.1603</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.2099999999999999E-3</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3.3E-4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1.0999999999999999E-4</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1.2E-4</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -794,74 +809,77 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.1706</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1.09E-3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.2E-4</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1.2E-4</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -874,74 +892,77 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.17879999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1.0199999999999999E-3</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5.0999999999999993E-4</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2.9E-4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1.4000000000000001E-4</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1.0999999999999999E-4</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -954,74 +975,77 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.20069999999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.7499999999999998E-3</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1.0299999999999999E-3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6.9000000000000008E-4</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.1299999999999999E-3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8.9999999999999992E-5</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1.0999999999999999E-4</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -1034,74 +1058,77 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.21129999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>9.7000000000000005E-4</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.07E-3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.7E-4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>4.3999999999999996E-4</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2.1999999999999998E-4</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1.2E-4</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1E-4</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -1114,74 +1141,77 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.22170000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5.8E-4</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>9.1E-4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3.1E-4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>3.1E-4</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>8.9999999999999992E-5</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>8.9999999999999992E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -1194,74 +1224,77 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.24610000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.65E-3</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1.08E-3</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.1799999999999998E-3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.8999999999999998E-4</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1.8999999999999998E-4</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -1274,74 +1307,77 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.2616</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.7499999999999998E-3</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>9.3999999999999997E-4</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8.699999999999999E-4</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3.7999999999999997E-4</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2.8000000000000003E-4</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3.3E-4</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -1354,70 +1390,73 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.26490000000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.6800000000000001E-3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1.83E-3</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>8.699999999999999E-4</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>7.6999999999999996E-4</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>6.9000000000000008E-4</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3.7999999999999997E-4</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0</v>
       </c>
     </row>

--- a/wzrv/expdata/2011.xlsx
+++ b/wzrv/expdata/2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8581356-05EE-6C41-890A-888F63219987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBE5A3-A73A-DE46-B71F-9006973955D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -644,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -727,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -810,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -893,7 +893,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -1142,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -1225,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
